--- a/frontSimulator/information.xlsx
+++ b/frontSimulator/information.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="proinfo" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="proinfo" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <r>
       <rPr>
@@ -46,6 +46,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">协议id</t>
+  </si>
+  <si>
     <t xml:space="preserve">风机状态</t>
   </si>
   <si>
@@ -64,28 +67,496 @@
     <t xml:space="preserve">01</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">401</t>
   </si>
   <si>
     <t xml:space="preserve">02</t>
   </si>
   <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">402</t>
+  </si>
+  <si>
     <t xml:space="preserve">03</t>
   </si>
   <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">403</t>
+  </si>
+  <si>
     <t xml:space="preserve">04</t>
   </si>
   <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">404</t>
+  </si>
+  <si>
     <t xml:space="preserve">05</t>
   </si>
   <si>
+    <t xml:space="preserve">105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">405</t>
+  </si>
+  <si>
     <t xml:space="preserve">06</t>
   </si>
   <si>
+    <t xml:space="preserve">106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">406</t>
+  </si>
+  <si>
     <t xml:space="preserve">07</t>
   </si>
   <si>
+    <t xml:space="preserve">107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">407</t>
+  </si>
+  <si>
     <t xml:space="preserve">08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">433</t>
   </si>
   <si>
     <t xml:space="preserve">proid</t>
@@ -199,12 +670,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -228,27 +699,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.4279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="20.4279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.9209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
@@ -263,165 +734,767 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>6701</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
+      <c r="B2" s="2" t="n">
+        <v>1178</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>31</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>6702</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="n">
+      <c r="B3" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="n">
-        <v>22</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>6703</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>33</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>6704</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="n">
+      <c r="B5" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="3" t="n">
-        <v>34</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>6705</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>35</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6706</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>26</v>
-      </c>
-      <c r="E7" s="3" t="n">
+      <c r="B7" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="3" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>6707</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="n">
-        <v>27</v>
-      </c>
-      <c r="E8" s="3" t="n">
+      <c r="B8" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="3" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>6708</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>38</v>
-      </c>
-      <c r="F9" s="3" t="n">
+      <c r="B9" s="2" t="n">
+        <v>1168</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>6709</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>6710</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>1168</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>6711</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>6712</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>6713</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>6714</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>6715</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>6716</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>6717</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>6718</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>6719</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>6720</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>6721</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>6722</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>6723</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>6724</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>6725</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>6726</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>6727</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>6728</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>6729</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>6730</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>6731</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>6732</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>6733</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -440,7 +1513,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
@@ -448,12 +1521,99 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
+      <c r="A1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1178</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>347</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>346</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>354</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>269</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1163</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1168</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -472,61 +1632,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
-        <v>1178</v>
-      </c>
-      <c r="B2" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>347</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>346</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>354</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>269</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>51</v>
+      <c r="A1" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/frontSimulator/information.xlsx
+++ b/frontSimulator/information.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" tabRatio="992" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" tabRatio="992"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -29,47 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="281">
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>风机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>id</t>
-    </r>
-  </si>
-  <si>
-    <t>协议id</t>
-  </si>
-  <si>
-    <t>风机状态</t>
-  </si>
-  <si>
-    <t>故障码</t>
-  </si>
-  <si>
-    <t>警告码</t>
-  </si>
-  <si>
-    <t>限功率模式字</t>
-  </si>
-  <si>
-    <t>停机模式字</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="282">
   <si>
     <t>01</t>
   </si>
@@ -893,6 +853,38 @@
   </si>
   <si>
     <t>lalalalalla</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtstate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>error_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarm_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>power_mode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stop_mode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>connect_code</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1233,38 +1225,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>275</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>276</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>277</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>278</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>279</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+      <c r="H1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>6701</v>
       </c>
@@ -1272,755 +1275,863 @@
         <v>1178</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
         <v>6702</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1178</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>6703</v>
       </c>
       <c r="B4" s="2">
         <v>1178</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>6704</v>
+        <v>6703</v>
       </c>
       <c r="B5" s="2">
         <v>1178</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>6705</v>
+        <v>6704</v>
       </c>
       <c r="B6" s="2">
         <v>1178</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>6706</v>
+        <v>6705</v>
       </c>
       <c r="B7" s="2">
         <v>1178</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>6707</v>
+        <v>6706</v>
       </c>
       <c r="B8" s="2">
         <v>1178</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>6707</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1178</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>6708</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1168</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>6709</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1178</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>6708</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>6710</v>
+      </c>
+      <c r="B12" s="2">
         <v>1168</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>6709</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1178</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
-        <v>6710</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1168</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
         <v>6711</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1178</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
-        <v>6712</v>
       </c>
       <c r="B13" s="2">
         <v>1178</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
-        <v>6713</v>
+        <v>6712</v>
       </c>
       <c r="B14" s="2">
         <v>1178</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
-        <v>6714</v>
+        <v>6713</v>
       </c>
       <c r="B15" s="2">
         <v>1178</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
-        <v>6715</v>
+        <v>6714</v>
       </c>
       <c r="B16" s="2">
         <v>1178</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
-        <v>6716</v>
+        <v>6715</v>
       </c>
       <c r="B17" s="2">
         <v>1178</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
-        <v>6717</v>
+        <v>6716</v>
       </c>
       <c r="B18" s="2">
         <v>1178</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>87</v>
+      <c r="C18" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <v>6718</v>
+        <v>6717</v>
       </c>
       <c r="B19" s="2">
         <v>1178</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <v>6719</v>
+        <v>6718</v>
       </c>
       <c r="B20" s="2">
         <v>1178</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>97</v>
+      <c r="C20" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
-        <v>6720</v>
+        <v>6719</v>
       </c>
       <c r="B21" s="2">
         <v>1178</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
-        <v>6721</v>
+        <v>6720</v>
       </c>
       <c r="B22" s="2">
         <v>1178</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
-        <v>6722</v>
+        <v>6721</v>
       </c>
       <c r="B23" s="2">
         <v>1178</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
-        <v>6723</v>
+        <v>6722</v>
       </c>
       <c r="B24" s="2">
         <v>1178</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
-        <v>6724</v>
+        <v>6723</v>
       </c>
       <c r="B25" s="2">
         <v>1178</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
-        <v>6725</v>
+        <v>6724</v>
       </c>
       <c r="B26" s="2">
         <v>1178</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>127</v>
+      <c r="C26" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>6726</v>
+        <v>6725</v>
       </c>
       <c r="B27" s="2">
         <v>1178</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>6727</v>
+        <v>6726</v>
       </c>
       <c r="B28" s="2">
         <v>1178</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>137</v>
+      <c r="C28" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
-        <v>6728</v>
+        <v>6727</v>
       </c>
       <c r="B29" s="2">
         <v>1178</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
-        <v>6729</v>
+        <v>6728</v>
       </c>
       <c r="B30" s="2">
         <v>1178</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
-        <v>6730</v>
+        <v>6729</v>
       </c>
       <c r="B31" s="2">
         <v>1178</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
-        <v>6731</v>
+        <v>6730</v>
       </c>
       <c r="B32" s="2">
         <v>1178</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
-        <v>6732</v>
+        <v>6731</v>
       </c>
       <c r="B33" s="2">
         <v>1178</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
-        <v>6733</v>
+        <v>6732</v>
       </c>
       <c r="B34" s="2">
         <v>1178</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>167</v>
+      <c r="C34" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>6733</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1178</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2035,32 +2146,37 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2143,7 +2259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2156,106 +2272,106 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -2264,290 +2380,290 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -2576,1858 +2692,1858 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="6" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="6" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="6" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="6" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="6" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="6" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="6" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="6" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="6" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="6" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="6" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="6" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="6" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="6" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="6" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="6" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="6" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="6" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="6" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="6" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="6" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="6" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="6" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="6" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="6" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="6" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="6" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="6" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="6" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="6" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="6" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="6" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="6" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" s="6" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" s="6" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="6" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" s="6" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" s="6" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" s="6" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" s="6" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" s="6" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" s="6" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" s="6" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" s="6" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" s="6" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A166" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" s="6" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" s="6" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A172" s="6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A173" s="6" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A174" s="6" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" s="6" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" s="6" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A178" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A179" s="6" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A180" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A182" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A183" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A184" s="6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A185" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A186" s="6" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A187" s="6" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A188" s="6" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A189" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A190" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A191" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A192" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A193" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A194" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A195" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A196" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A197" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A198" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A199" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A200" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A201" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A202" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A203" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A204" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A205" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A206" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A207" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A208" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A209" s="6" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A210" s="6" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A211" s="6" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A212" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A213" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A214" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A215" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A216" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A217" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A218" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A219" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A220" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A221" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A222" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A223" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A224" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A225" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A226" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A227" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A228" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A229" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A230" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A231" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A232" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A233" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A234" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A235" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A236" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A237" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A238" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A239" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A240" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A241" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A242" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A243" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A244" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A245" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A246" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A247" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A248" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A249" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A250" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A251" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A252" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A253" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A254" s="6" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A255" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A256" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A257" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A258" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A259" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A260" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A261" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A262" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A263" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A264" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A265" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A266" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A267" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A268" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A269" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A270" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A271" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A272" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A273" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A274" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A275" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A276" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A277" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A278" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A279" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A280" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A281" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A282" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A283" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A284" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A285" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A286" s="6" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A287" s="6" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A288" s="6" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.15">
@@ -4532,210 +4648,210 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A314" s="6" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A315" s="6" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A316" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A317" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A318" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A319" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A320" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A321" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A322" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A323" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A324" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A325" s="6" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A326" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A327" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A328" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A329" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A330" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A331" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A332" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A333" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A334" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A335" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A336" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A337" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A338" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A339" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.15">
@@ -4768,66 +4884,66 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A347" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A348" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A349" s="6" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A350" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A351" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A352" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A353" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A354" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.15">
@@ -4836,10 +4952,10 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A356" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/frontSimulator/information.xlsx
+++ b/frontSimulator/information.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="218">
   <si>
     <t xml:space="preserve">wtid</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t xml:space="preserve">08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
   </si>
   <si>
     <t xml:space="preserve">308</t>
@@ -805,18 +808,18 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6511627906977"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.0279069767442"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.7488372093023"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.8418604651163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.6139534883721"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.5023255813953"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.8744186046512"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.5348837209302"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.353488372093"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1038,16 +1041,16 @@
         <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0</v>
@@ -1061,7 +1064,7 @@
         <v>1178</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>
@@ -1070,10 +1073,10 @@
         <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0</v>
@@ -1087,7 +1090,7 @@
         <v>1168</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>9</v>
@@ -1096,10 +1099,10 @@
         <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0</v>
@@ -1107,13 +1110,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>1178</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
@@ -1122,10 +1125,10 @@
         <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0</v>
@@ -1139,7 +1142,7 @@
         <v>1178</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
@@ -1148,10 +1151,10 @@
         <v>9</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0</v>
@@ -1165,7 +1168,7 @@
         <v>1178</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>9</v>
@@ -1174,10 +1177,10 @@
         <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0</v>
@@ -1191,7 +1194,7 @@
         <v>1178</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
@@ -1200,10 +1203,10 @@
         <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0</v>
@@ -1217,7 +1220,7 @@
         <v>1178</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>9</v>
@@ -1226,10 +1229,10 @@
         <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0</v>
@@ -1243,7 +1246,7 @@
         <v>1178</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>9</v>
@@ -1252,10 +1255,10 @@
         <v>9</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0</v>
@@ -1269,7 +1272,7 @@
         <v>1178</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>9</v>
@@ -1278,10 +1281,10 @@
         <v>9</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0</v>
@@ -1295,7 +1298,7 @@
         <v>1178</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>9</v>
@@ -1304,10 +1307,10 @@
         <v>9</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0</v>
@@ -1321,7 +1324,7 @@
         <v>1178</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>9</v>
@@ -1330,10 +1333,10 @@
         <v>9</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>1</v>
@@ -1347,7 +1350,7 @@
         <v>1178</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>9</v>
@@ -1356,10 +1359,10 @@
         <v>9</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1</v>
@@ -1373,7 +1376,7 @@
         <v>1178</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>9</v>
@@ -1382,10 +1385,10 @@
         <v>9</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>1</v>
@@ -1399,7 +1402,7 @@
         <v>1178</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>9</v>
@@ -1408,10 +1411,10 @@
         <v>9</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>1</v>
@@ -1425,7 +1428,7 @@
         <v>1178</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>9</v>
@@ -1434,10 +1437,10 @@
         <v>9</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>1</v>
@@ -1451,7 +1454,7 @@
         <v>1178</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>9</v>
@@ -1460,10 +1463,10 @@
         <v>9</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>1</v>
@@ -1477,7 +1480,7 @@
         <v>1178</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>9</v>
@@ -1486,10 +1489,10 @@
         <v>9</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>1</v>
@@ -1503,7 +1506,7 @@
         <v>1178</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>9</v>
@@ -1512,10 +1515,10 @@
         <v>9</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>1</v>
@@ -1529,7 +1532,7 @@
         <v>1178</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>9</v>
@@ -1538,10 +1541,10 @@
         <v>9</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>1</v>
@@ -1555,7 +1558,7 @@
         <v>1178</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>9</v>
@@ -1564,10 +1567,10 @@
         <v>9</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>1</v>
@@ -1581,7 +1584,7 @@
         <v>1178</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>9</v>
@@ -1590,10 +1593,10 @@
         <v>9</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>1</v>
@@ -1607,7 +1610,7 @@
         <v>1178</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>9</v>
@@ -1616,10 +1619,10 @@
         <v>9</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>1</v>
@@ -1633,7 +1636,7 @@
         <v>1178</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>9</v>
@@ -1642,10 +1645,10 @@
         <v>9</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>1</v>
@@ -1659,7 +1662,7 @@
         <v>1178</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>9</v>
@@ -1668,10 +1671,10 @@
         <v>9</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>1</v>
@@ -1685,7 +1688,7 @@
         <v>1178</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>9</v>
@@ -1694,10 +1697,10 @@
         <v>9</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>1</v>
@@ -1727,7 +1730,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1735,22 +1738,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1846,111 +1849,111 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1959,74 +1962,74 @@
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2039,66 +2042,66 @@
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2151,26 +2154,26 @@
     </row>
     <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2303,50 +2306,50 @@
     </row>
     <row r="61" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2375,42 +2378,42 @@
     </row>
     <row r="70" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2423,1706 +2426,1706 @@
     </row>
     <row r="76" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4227,210 +4230,210 @@
     </row>
     <row r="314" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4479,18 +4482,18 @@
     </row>
     <row r="349" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4503,10 +4506,10 @@
     </row>
     <row r="352" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4519,10 +4522,10 @@
     </row>
     <row r="354" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/frontSimulator/information.xlsx
+++ b/frontSimulator/information.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="236">
   <si>
     <t xml:space="preserve">wtid</t>
   </si>
@@ -387,27 +387,45 @@
     <t xml:space="preserve">2016-11-10 13:42:57.814</t>
   </si>
   <si>
+    <t xml:space="preserve">2016-12-19 11:23:54.000</t>
+  </si>
+  <si>
     <t xml:space="preserve">420190724.95</t>
   </si>
   <si>
+    <t xml:space="preserve">58.66</t>
+  </si>
+  <si>
     <t xml:space="preserve">WTG20</t>
   </si>
   <si>
     <t xml:space="preserve">lalalalalla</t>
   </si>
   <si>
+    <t xml:space="preserve">11.20</t>
+  </si>
+  <si>
     <t xml:space="preserve">115/2000</t>
   </si>
   <si>
+    <t xml:space="preserve">11.10</t>
+  </si>
+  <si>
     <t xml:space="preserve">Simulator</t>
   </si>
   <si>
+    <t xml:space="preserve">236.40</t>
+  </si>
+  <si>
     <t xml:space="preserve">150702</t>
   </si>
   <si>
     <t xml:space="preserve">2222_XiaoMing</t>
   </si>
   <si>
+    <t xml:space="preserve">24726.50</t>
+  </si>
+  <si>
     <t xml:space="preserve">192.168.137.1.1.1</t>
   </si>
   <si>
@@ -417,9 +435,15 @@
     <t xml:space="preserve">2015-07-02 00:00:00.000</t>
   </si>
   <si>
+    <t xml:space="preserve">247265.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">SW66.6_V20150702</t>
   </si>
   <si>
+    <t xml:space="preserve">236.30</t>
+  </si>
+  <si>
     <t xml:space="preserve">20065</t>
   </si>
   <si>
@@ -450,6 +474,9 @@
     <t xml:space="preserve">40</t>
   </si>
   <si>
+    <t xml:space="preserve">960.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.00</t>
   </si>
   <si>
@@ -477,6 +504,9 @@
     <t xml:space="preserve">103.72</t>
   </si>
   <si>
+    <t xml:space="preserve">247266.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.47</t>
   </si>
   <si>
@@ -600,6 +630,9 @@
     <t xml:space="preserve">38.00</t>
   </si>
   <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
     <t xml:space="preserve">68.00</t>
   </si>
   <si>
@@ -633,6 +666,9 @@
     <t xml:space="preserve">314.60</t>
   </si>
   <si>
+    <t xml:space="preserve">135</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.20</t>
   </si>
   <si>
@@ -657,6 +693,9 @@
     <t xml:space="preserve">138.00</t>
   </si>
   <si>
+    <t xml:space="preserve">false</t>
+  </si>
+  <si>
     <t xml:space="preserve">681.00</t>
   </si>
   <si>
@@ -666,19 +705,31 @@
     <t xml:space="preserve">125.00</t>
   </si>
   <si>
-    <t xml:space="preserve">false</t>
-  </si>
-  <si>
     <t xml:space="preserve">true</t>
   </si>
   <si>
+    <t xml:space="preserve">115/1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:24:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-01-35 01:35:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">598.99</t>
   </si>
   <si>
     <t xml:space="preserve">UnLock</t>
   </si>
   <si>
+    <t xml:space="preserve">-14878</t>
+  </si>
+  <si>
     <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
   </si>
 </sst>
 </file>
@@ -810,19 +861,19 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3488372093023"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.7209302325581"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.2558139534884"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3348837209302"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.4279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3209302325581"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.8093023255814"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.1023255813953"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.4418604651163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1727,13 +1778,13 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1833,22 +1884,22 @@
         <v>1467</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>5</v>
+        <v>279</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>6</v>
+        <v>280</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>7</v>
+        <v>359</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>8</v>
+        <v>358</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>9</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1867,15 +1918,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C356"/>
+  <dimension ref="A1:C385"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E126" activeCellId="0" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1897,134 +1948,136 @@
         <v>120</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
@@ -2034,18 +2087,18 @@
         <v>57</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2056,7 +2109,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2067,7 +2120,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2078,51 +2131,51 @@
         <v>48</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2133,26 +2186,26 @@
         <v>9</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>139</v>
@@ -2160,13 +2213,13 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2177,18 +2230,18 @@
         <v>90</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2199,29 +2252,29 @@
         <v>102</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2232,7 +2285,7 @@
         <v>9</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2243,7 +2296,7 @@
         <v>9</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2254,7 +2307,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2265,7 +2318,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2276,7 +2329,7 @@
         <v>9</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2287,40 +2340,40 @@
         <v>9</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2331,7 +2384,7 @@
         <v>9</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2342,7 +2395,7 @@
         <v>9</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2353,7 +2406,7 @@
         <v>9</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2364,7 +2417,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2375,7 +2428,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2386,7 +2439,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2397,7 +2450,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2408,7 +2461,7 @@
         <v>9</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2419,38 +2472,50 @@
         <v>9</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
+      <c r="C51" s="6" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
+      <c r="C52" s="6" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
+      <c r="C53" s="6" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
+      <c r="C54" s="6" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
+      <c r="C55" s="6" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
+      <c r="C56" s="6" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
@@ -2460,7 +2525,7 @@
         <v>9</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2471,7 +2536,7 @@
         <v>9</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2482,7 +2547,7 @@
         <v>9</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2493,73 +2558,73 @@
         <v>9</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2570,7 +2635,7 @@
         <v>9</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2581,7 +2646,7 @@
         <v>9</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2592,62 +2657,62 @@
         <v>9</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2658,29 +2723,29 @@
         <v>9</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2691,2549 +2756,2599 @@
         <v>107</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>171</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>176</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>183</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>189</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>190</v>
+        <v>66</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>191</v>
+        <v>81</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>199</v>
+        <v>152</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="6" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="6" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>214</v>
+        <v>124</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>214</v>
+        <v>129</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>213</v>
+        <v>131</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
-      <c r="C289" s="6"/>
+      <c r="C289" s="6" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
-      <c r="C290" s="6"/>
+      <c r="C290" s="6" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
-      <c r="C291" s="6"/>
+      <c r="C291" s="6" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
-      <c r="C292" s="6"/>
+      <c r="C292" s="6" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
-      <c r="C293" s="6"/>
+      <c r="C293" s="6" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
-      <c r="C294" s="6"/>
+      <c r="C294" s="6" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
-      <c r="C295" s="6"/>
+      <c r="C295" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
-      <c r="C296" s="6"/>
+      <c r="C296" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
-      <c r="C297" s="6"/>
+      <c r="C297" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
-      <c r="C298" s="6"/>
+      <c r="C298" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
-      <c r="C299" s="6"/>
+      <c r="C299" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
-      <c r="C300" s="6"/>
+      <c r="C300" s="6" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
-      <c r="C301" s="6"/>
+      <c r="C301" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
-      <c r="C302" s="6"/>
+      <c r="C302" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
-      <c r="C303" s="6"/>
+      <c r="C303" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
-      <c r="C304" s="6"/>
+      <c r="C304" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
-      <c r="C305" s="6"/>
+      <c r="C305" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
-      <c r="C306" s="6"/>
+      <c r="C306" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
-      <c r="C307" s="6"/>
+      <c r="C307" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
-      <c r="C308" s="6"/>
+      <c r="C308" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
-      <c r="C309" s="6"/>
+      <c r="C309" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
-      <c r="C310" s="6"/>
+      <c r="C310" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
-      <c r="C311" s="6"/>
+      <c r="C311" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
-      <c r="C312" s="6"/>
+      <c r="C312" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
-      <c r="C313" s="6"/>
+      <c r="C313" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C323" s="6" t="s">
         <v>214</v>
@@ -5241,10 +5356,10 @@
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C324" s="6" t="s">
         <v>214</v>
@@ -5252,203 +5367,217 @@
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>215</v>
+        <v>152</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>142</v>
+        <v>233</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
-      <c r="C340" s="6"/>
+      <c r="C340" s="6" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
-      <c r="C341" s="6"/>
+      <c r="C341" s="6" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
-      <c r="C342" s="6"/>
+      <c r="C342" s="6" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
-      <c r="C343" s="6"/>
+      <c r="C343" s="6" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
-      <c r="C344" s="6"/>
+      <c r="C344" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
-      <c r="C345" s="6"/>
+      <c r="C345" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
-      <c r="C346" s="6"/>
+      <c r="C346" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="6" t="s">
@@ -5458,7 +5587,7 @@
         <v>9</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5469,29 +5598,29 @@
         <v>9</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="6" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="6" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5502,18 +5631,18 @@
         <v>9</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5524,24 +5653,26 @@
         <v>9</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="6" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C354" s="6" t="s">
-        <v>148</v>
+        <v>223</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
-      <c r="C355" s="6"/>
+      <c r="C355" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="s">
@@ -5551,6 +5682,151 @@
         <v>9</v>
       </c>
       <c r="C356" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C357" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C358" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C359" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C360" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C361" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C362" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C363" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C364" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C365" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C366" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C367" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C368" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C369" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C370" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C371" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C372" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C373" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C374" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C375" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C376" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C377" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C378" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C379" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C380" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C381" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C382" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C383" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C384" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C385" s="5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/frontSimulator/information.xlsx
+++ b/frontSimulator/information.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ZHH/PycharmProjects/python_tools/frontSimulator/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="991" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="info" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="proSeatNum" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="propaths" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="info" sheetId="1" r:id="rId1"/>
+    <sheet name="proSeatNum" sheetId="2" r:id="rId2"/>
+    <sheet name="propaths" sheetId="3" r:id="rId3"/>
+    <sheet name="750packages" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -22,725 +30,769 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="236">
-  <si>
-    <t xml:space="preserve">wtid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wtstate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">error_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alarm_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">power_mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stop_mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">connect_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">风机状态位置</t>
-  </si>
-  <si>
-    <t xml:space="preserve">故障码位置</t>
-  </si>
-  <si>
-    <t xml:space="preserve">警告码位置</t>
-  </si>
-  <si>
-    <t xml:space="preserve">限功率模式字位置</t>
-  </si>
-  <si>
-    <t xml:space="preserve">限功率标志位置</t>
-  </si>
-  <si>
-    <t xml:space="preserve">停机模式字位置</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-11-10 13:42:57.814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-12-19 11:23:54.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">420190724.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WTG20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lalalalalla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115/2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">236.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2222_XiaoMing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24726.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.137.1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GW_V_GL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-07-02 00:00:00.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">247265.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW66.6_V20150702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">236.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">960.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">247266.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1801801.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">685.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">688.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">699.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">242.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">687.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">697.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">692.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">397.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">382.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">384.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">314.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">535.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">442.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">455.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">440.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20497.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">681.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115/1500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:24:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-01-35 01:35:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">598.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UnLock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="248">
+  <si>
+    <t>wtid</t>
+  </si>
+  <si>
+    <t>proid</t>
+  </si>
+  <si>
+    <t>wtstate</t>
+  </si>
+  <si>
+    <t>error_code</t>
+  </si>
+  <si>
+    <t>alarm_code</t>
+  </si>
+  <si>
+    <t>power_mode</t>
+  </si>
+  <si>
+    <t>stop_mode</t>
+  </si>
+  <si>
+    <t>connect_code</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>6701</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>415</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>416</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>418</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>424</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>风机状态位置</t>
+  </si>
+  <si>
+    <t>故障码位置</t>
+  </si>
+  <si>
+    <t>警告码位置</t>
+  </si>
+  <si>
+    <t>限功率模式字位置</t>
+  </si>
+  <si>
+    <t>限功率标志位置</t>
+  </si>
+  <si>
+    <t>停机模式字位置</t>
+  </si>
+  <si>
+    <t>1178</t>
+  </si>
+  <si>
+    <t>1168</t>
+  </si>
+  <si>
+    <t>1467</t>
+  </si>
+  <si>
+    <t>2016-11-10 13:42:57.814</t>
+  </si>
+  <si>
+    <t>2016-12-19 11:23:54.000</t>
+  </si>
+  <si>
+    <t>420190724.95</t>
+  </si>
+  <si>
+    <t>58.66</t>
+  </si>
+  <si>
+    <t>WTG20</t>
+  </si>
+  <si>
+    <t>lalalalalla</t>
+  </si>
+  <si>
+    <t>11.20</t>
+  </si>
+  <si>
+    <t>115/2000</t>
+  </si>
+  <si>
+    <t>11.10</t>
+  </si>
+  <si>
+    <t>Simulator</t>
+  </si>
+  <si>
+    <t>236.40</t>
+  </si>
+  <si>
+    <t>150702</t>
+  </si>
+  <si>
+    <t>2222_XiaoMing</t>
+  </si>
+  <si>
+    <t>24726.50</t>
+  </si>
+  <si>
+    <t>192.168.137.1.1.1</t>
+  </si>
+  <si>
+    <t>GW_V_GL</t>
+  </si>
+  <si>
+    <t>2015-07-02 00:00:00.000</t>
+  </si>
+  <si>
+    <t>247265.00</t>
+  </si>
+  <si>
+    <t>SW66.6_V20150702</t>
+  </si>
+  <si>
+    <t>236.30</t>
+  </si>
+  <si>
+    <t>20065</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>960.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2060</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>20497</t>
+  </si>
+  <si>
+    <t>103.72</t>
+  </si>
+  <si>
+    <t>247266.00</t>
+  </si>
+  <si>
+    <t>10.47</t>
+  </si>
+  <si>
+    <t>16.22</t>
+  </si>
+  <si>
+    <t>8.96</t>
+  </si>
+  <si>
+    <t>77.03</t>
+  </si>
+  <si>
+    <t>2.62</t>
+  </si>
+  <si>
+    <t>20.28</t>
+  </si>
+  <si>
+    <t>24.07</t>
+  </si>
+  <si>
+    <t>79.65</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>60.90</t>
+  </si>
+  <si>
+    <t>66.70</t>
+  </si>
+  <si>
+    <t>-1801801.00</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>255.78</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>-0.50</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>685.00</t>
+  </si>
+  <si>
+    <t>688.00</t>
+  </si>
+  <si>
+    <t>699.00</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>50.40</t>
+  </si>
+  <si>
+    <t>242.00</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>687.00</t>
+  </si>
+  <si>
+    <t>697.00</t>
+  </si>
+  <si>
+    <t>692.00</t>
+  </si>
+  <si>
+    <t>397.00</t>
+  </si>
+  <si>
+    <t>382.00</t>
+  </si>
+  <si>
+    <t>384.00</t>
+  </si>
+  <si>
+    <t>65.52</t>
+  </si>
+  <si>
+    <t>314.60</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>535.56</t>
+  </si>
+  <si>
+    <t>442.35</t>
+  </si>
+  <si>
+    <t>16.21</t>
+  </si>
+  <si>
+    <t>455.94</t>
+  </si>
+  <si>
+    <t>440.84</t>
+  </si>
+  <si>
+    <t>20497.00</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>681.00</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>115/1500</t>
+  </si>
+  <si>
+    <t>11:24:36</t>
+  </si>
+  <si>
+    <t>2000-01-35 01:35:00</t>
+  </si>
+  <si>
+    <t>598.99</t>
+  </si>
+  <si>
+    <t>UnLock</t>
+  </si>
+  <si>
+    <t>-14878</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>FSTA2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WFPR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ra3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WWWW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>66</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>66</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>66</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>66</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>66</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>144444</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>144444</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -749,26 +801,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -780,7 +823,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -788,125 +831,339 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3209302325581"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.8093023255814"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.1023255813953"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.4139534883721"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.3395348837209"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
         <v>6701</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="2">
         <v>1178</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -924,15 +1181,15 @@
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
         <v>6702</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>1178</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -950,15 +1207,15 @@
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
         <v>6703</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>1178</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -976,15 +1233,15 @@
       <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
         <v>6704</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>1178</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1002,15 +1259,15 @@
       <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
         <v>6705</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>1178</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1028,15 +1285,15 @@
       <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
         <v>6706</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>1178</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1054,15 +1311,15 @@
       <c r="G7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
         <v>6707</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>1178</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1080,15 +1337,15 @@
       <c r="G8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
         <v>6708</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>1168</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1106,15 +1363,15 @@
       <c r="G9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
         <v>6709</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>1178</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1132,15 +1389,15 @@
       <c r="G10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
         <v>6710</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>1168</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1158,15 +1415,15 @@
       <c r="G11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>1178</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1184,15 +1441,15 @@
       <c r="G12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
         <v>6712</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>1178</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1210,15 +1467,15 @@
       <c r="G13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
         <v>6713</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>1178</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1236,15 +1493,15 @@
       <c r="G14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
         <v>6714</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>1178</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1262,15 +1519,15 @@
       <c r="G15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
         <v>6715</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>1178</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1288,15 +1545,15 @@
       <c r="G16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
         <v>6716</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="2">
         <v>1178</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1314,15 +1571,15 @@
       <c r="G17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
         <v>6717</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>1178</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1340,15 +1597,15 @@
       <c r="G18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
         <v>6718</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="2">
         <v>1178</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1366,15 +1623,15 @@
       <c r="G19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
         <v>6719</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="2">
         <v>1178</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1392,15 +1649,15 @@
       <c r="G20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
         <v>6720</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="2">
         <v>1178</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1418,15 +1675,15 @@
       <c r="G21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
         <v>6721</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="2">
         <v>1178</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1444,15 +1701,15 @@
       <c r="G22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
         <v>6722</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="2">
         <v>1178</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1470,15 +1727,15 @@
       <c r="G23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
         <v>6723</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="2">
         <v>1178</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1496,15 +1753,15 @@
       <c r="G24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
         <v>6724</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="2">
         <v>1178</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1522,15 +1779,15 @@
       <c r="G25" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
         <v>6725</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="2">
         <v>1178</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1548,15 +1805,15 @@
       <c r="G26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
         <v>6726</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="2">
         <v>1178</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1574,15 +1831,15 @@
       <c r="G27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
         <v>6727</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="2">
         <v>1178</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1600,15 +1857,15 @@
       <c r="G28" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
         <v>6728</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="2">
         <v>1178</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1626,15 +1883,15 @@
       <c r="G29" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
         <v>6729</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="2">
         <v>1178</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1652,15 +1909,15 @@
       <c r="G30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
         <v>6730</v>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="2">
         <v>1178</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1678,15 +1935,15 @@
       <c r="G31" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
         <v>6731</v>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="2">
         <v>1178</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1704,15 +1961,15 @@
       <c r="G32" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="H32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
         <v>6732</v>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="2">
         <v>1178</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1730,15 +1987,15 @@
       <c r="G33" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="H33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
         <v>6733</v>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="2">
         <v>1178</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -1756,38 +2013,34 @@
       <c r="G34" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="H34">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.3395348837209"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1810,126 +2063,119 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
         <v>1178</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="4">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="4">
         <v>347</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="4">
         <v>346</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="4">
         <v>354</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="4">
         <v>269</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="4">
         <v>51</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
         <v>1163</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
         <v>1168</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>7</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>8</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="G4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
         <v>1467</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>144</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>279</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>280</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>359</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>358</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>123</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C385"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK385"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E126" activeCellId="0" sqref="E126"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="10.3395348837209"/>
+    <col min="1" max="1025" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>117</v>
       </c>
@@ -1940,7 +2186,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>120</v>
       </c>
@@ -1951,7 +2197,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>122</v>
       </c>
@@ -1962,7 +2208,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>124</v>
       </c>
@@ -1973,7 +2219,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>127</v>
       </c>
@@ -1984,7 +2230,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>129</v>
       </c>
@@ -1995,7 +2241,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>131</v>
       </c>
@@ -2006,7 +2252,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>132</v>
       </c>
@@ -2017,7 +2263,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>134</v>
       </c>
@@ -2028,7 +2274,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>135</v>
       </c>
@@ -2039,7 +2285,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>136</v>
       </c>
@@ -2050,7 +2296,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>138</v>
       </c>
@@ -2061,7 +2307,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>140</v>
       </c>
@@ -2072,14 +2318,14 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>57</v>
       </c>
@@ -2090,7 +2336,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>141</v>
       </c>
@@ -2101,7 +2347,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
@@ -2112,7 +2358,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>38</v>
       </c>
@@ -2123,7 +2369,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>48</v>
       </c>
@@ -2134,7 +2380,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>142</v>
       </c>
@@ -2145,7 +2391,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>143</v>
       </c>
@@ -2156,7 +2402,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>144</v>
       </c>
@@ -2167,7 +2413,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>145</v>
       </c>
@@ -2178,7 +2424,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>9</v>
       </c>
@@ -2189,7 +2435,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>146</v>
       </c>
@@ -2200,7 +2446,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>147</v>
       </c>
@@ -2211,7 +2457,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
         <v>148</v>
       </c>
@@ -2222,7 +2468,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>90</v>
       </c>
@@ -2233,7 +2479,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>149</v>
       </c>
@@ -2244,7 +2490,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
         <v>102</v>
       </c>
@@ -2255,7 +2501,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
         <v>146</v>
       </c>
@@ -2266,7 +2512,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>142</v>
       </c>
@@ -2277,7 +2523,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
         <v>9</v>
       </c>
@@ -2288,7 +2534,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>9</v>
       </c>
@@ -2299,7 +2545,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
         <v>9</v>
       </c>
@@ -2310,7 +2556,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
         <v>9</v>
       </c>
@@ -2321,7 +2567,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
         <v>9</v>
       </c>
@@ -2332,7 +2578,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
         <v>9</v>
       </c>
@@ -2343,7 +2589,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
         <v>151</v>
       </c>
@@ -2354,7 +2600,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
         <v>151</v>
       </c>
@@ -2365,7 +2611,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
         <v>151</v>
       </c>
@@ -2376,7 +2622,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
         <v>9</v>
       </c>
@@ -2387,7 +2633,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
         <v>9</v>
       </c>
@@ -2398,7 +2644,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
         <v>9</v>
       </c>
@@ -2409,7 +2655,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
         <v>9</v>
       </c>
@@ -2420,7 +2666,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
         <v>9</v>
       </c>
@@ -2431,7 +2677,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
         <v>9</v>
       </c>
@@ -2442,7 +2688,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
         <v>9</v>
       </c>
@@ -2453,7 +2699,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
         <v>9</v>
       </c>
@@ -2464,7 +2710,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
         <v>9</v>
       </c>
@@ -2475,49 +2721,49 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
         <v>9</v>
       </c>
@@ -2528,7 +2774,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
         <v>9</v>
       </c>
@@ -2539,7 +2785,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="6" t="s">
         <v>9</v>
       </c>
@@ -2550,7 +2796,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="6" t="s">
         <v>9</v>
       </c>
@@ -2561,7 +2807,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="6" t="s">
         <v>152</v>
       </c>
@@ -2572,7 +2818,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="6" t="s">
         <v>144</v>
       </c>
@@ -2583,7 +2829,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="6" t="s">
         <v>153</v>
       </c>
@@ -2594,7 +2840,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="6" t="s">
         <v>154</v>
       </c>
@@ -2605,7 +2851,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="6" t="s">
         <v>155</v>
       </c>
@@ -2616,7 +2862,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
         <v>156</v>
       </c>
@@ -2627,7 +2873,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="6" t="s">
         <v>9</v>
       </c>
@@ -2638,7 +2884,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="6" t="s">
         <v>9</v>
       </c>
@@ -2649,7 +2895,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="6" t="s">
         <v>9</v>
       </c>
@@ -2660,7 +2906,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="6" t="s">
         <v>156</v>
       </c>
@@ -2671,7 +2917,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="6" t="s">
         <v>153</v>
       </c>
@@ -2682,7 +2928,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
         <v>144</v>
       </c>
@@ -2693,7 +2939,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
         <v>157</v>
       </c>
@@ -2704,7 +2950,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
         <v>144</v>
       </c>
@@ -2715,7 +2961,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="6" t="s">
         <v>9</v>
       </c>
@@ -2726,7 +2972,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="6" t="s">
         <v>154</v>
       </c>
@@ -2737,7 +2983,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="6" t="s">
         <v>158</v>
       </c>
@@ -2748,7 +2994,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="6" t="s">
         <v>107</v>
       </c>
@@ -2759,7 +3005,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="6" t="s">
         <v>159</v>
       </c>
@@ -2770,7 +3016,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
         <v>161</v>
       </c>
@@ -2781,7 +3027,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
         <v>162</v>
       </c>
@@ -2792,7 +3038,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
         <v>151</v>
       </c>
@@ -2803,7 +3049,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="6" t="s">
         <v>151</v>
       </c>
@@ -2814,7 +3060,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="6" t="s">
         <v>163</v>
       </c>
@@ -2825,7 +3071,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="6" t="s">
         <v>164</v>
       </c>
@@ -2836,7 +3082,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="6" t="s">
         <v>165</v>
       </c>
@@ -2847,7 +3093,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="6" t="s">
         <v>151</v>
       </c>
@@ -2858,7 +3104,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
         <v>151</v>
       </c>
@@ -2869,7 +3115,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
         <v>151</v>
       </c>
@@ -2880,7 +3126,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
         <v>166</v>
       </c>
@@ -2891,7 +3137,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" s="6" t="s">
         <v>163</v>
       </c>
@@ -2902,7 +3148,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" s="6" t="s">
         <v>167</v>
       </c>
@@ -2913,7 +3159,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="6" t="s">
         <v>168</v>
       </c>
@@ -2924,7 +3170,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="6" t="s">
         <v>169</v>
       </c>
@@ -2935,7 +3181,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
         <v>170</v>
       </c>
@@ -2946,7 +3192,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
         <v>171</v>
       </c>
@@ -2957,7 +3203,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
         <v>151</v>
       </c>
@@ -2968,7 +3214,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
         <v>172</v>
       </c>
@@ -2979,7 +3225,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="6" t="s">
         <v>151</v>
       </c>
@@ -2990,7 +3236,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="6" t="s">
         <v>173</v>
       </c>
@@ -3001,7 +3247,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="6" t="s">
         <v>173</v>
       </c>
@@ -3012,7 +3258,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="6" t="s">
         <v>173</v>
       </c>
@@ -3023,7 +3269,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" s="6" t="s">
         <v>174</v>
       </c>
@@ -3034,7 +3280,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" s="6" t="s">
         <v>151</v>
       </c>
@@ -3045,7 +3291,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="6" t="s">
         <v>175</v>
       </c>
@@ -3056,7 +3302,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="6" t="s">
         <v>175</v>
       </c>
@@ -3067,7 +3313,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="6" t="s">
         <v>175</v>
       </c>
@@ -3078,7 +3324,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="6" t="s">
         <v>176</v>
       </c>
@@ -3089,7 +3335,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" s="6" t="s">
         <v>177</v>
       </c>
@@ -3100,7 +3346,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="6" t="s">
         <v>177</v>
       </c>
@@ -3111,7 +3357,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
         <v>178</v>
       </c>
@@ -3122,7 +3368,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
         <v>151</v>
       </c>
@@ -3133,7 +3379,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
         <v>179</v>
       </c>
@@ -3144,7 +3390,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
         <v>180</v>
       </c>
@@ -3155,7 +3401,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="6" t="s">
         <v>181</v>
       </c>
@@ -3166,7 +3412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="6" t="s">
         <v>182</v>
       </c>
@@ -3177,7 +3423,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="6" t="s">
         <v>183</v>
       </c>
@@ -3188,7 +3434,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="6" t="s">
         <v>184</v>
       </c>
@@ -3199,7 +3445,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="6" t="s">
         <v>175</v>
       </c>
@@ -3210,7 +3456,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="6" t="s">
         <v>151</v>
       </c>
@@ -3221,7 +3467,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="6" t="s">
         <v>151</v>
       </c>
@@ -3232,7 +3478,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
         <v>122</v>
       </c>
@@ -3243,7 +3489,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
         <v>185</v>
       </c>
@@ -3254,7 +3500,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="6" t="s">
         <v>186</v>
       </c>
@@ -3265,7 +3511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="6" t="s">
         <v>187</v>
       </c>
@@ -3276,7 +3522,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="6" t="s">
         <v>188</v>
       </c>
@@ -3287,7 +3533,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="6" t="s">
         <v>188</v>
       </c>
@@ -3298,7 +3544,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="6" t="s">
         <v>186</v>
       </c>
@@ -3309,7 +3555,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="6" t="s">
         <v>151</v>
       </c>
@@ -3320,7 +3566,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
         <v>189</v>
       </c>
@@ -3331,7 +3577,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
         <v>190</v>
       </c>
@@ -3342,7 +3588,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
         <v>191</v>
       </c>
@@ -3353,7 +3599,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="6" t="s">
         <v>192</v>
       </c>
@@ -3364,7 +3610,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="6" t="s">
         <v>193</v>
       </c>
@@ -3375,7 +3621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="6" t="s">
         <v>194</v>
       </c>
@@ -3386,7 +3632,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="6" t="s">
         <v>195</v>
       </c>
@@ -3397,7 +3643,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="6" t="s">
         <v>196</v>
       </c>
@@ -3408,7 +3654,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="6" t="s">
         <v>197</v>
       </c>
@@ -3419,7 +3665,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="6" t="s">
         <v>198</v>
       </c>
@@ -3430,7 +3676,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="6" t="s">
         <v>199</v>
       </c>
@@ -3441,7 +3687,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" s="6" t="s">
         <v>200</v>
       </c>
@@ -3452,7 +3698,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="6" t="s">
         <v>199</v>
       </c>
@@ -3463,7 +3709,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="6" t="s">
         <v>201</v>
       </c>
@@ -3474,7 +3720,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="6" t="s">
         <v>199</v>
       </c>
@@ -3485,7 +3731,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="6" t="s">
         <v>181</v>
       </c>
@@ -3496,7 +3742,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="6" t="s">
         <v>203</v>
       </c>
@@ -3507,7 +3753,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="6" t="s">
         <v>180</v>
       </c>
@@ -3518,7 +3764,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="6" t="s">
         <v>201</v>
       </c>
@@ -3529,7 +3775,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="6" t="s">
         <v>201</v>
       </c>
@@ -3540,7 +3786,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="6" t="s">
         <v>204</v>
       </c>
@@ -3551,7 +3797,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="6" t="s">
         <v>205</v>
       </c>
@@ -3562,7 +3808,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" s="6" t="s">
         <v>206</v>
       </c>
@@ -3573,7 +3819,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" s="6" t="s">
         <v>207</v>
       </c>
@@ -3584,7 +3830,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" s="6" t="s">
         <v>208</v>
       </c>
@@ -3595,7 +3841,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" s="6" t="s">
         <v>209</v>
       </c>
@@ -3606,7 +3852,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" s="6" t="s">
         <v>210</v>
       </c>
@@ -3617,7 +3863,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" s="6" t="s">
         <v>211</v>
       </c>
@@ -3628,7 +3874,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" s="6" t="s">
         <v>212</v>
       </c>
@@ -3639,7 +3885,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" s="6" t="s">
         <v>213</v>
       </c>
@@ -3650,7 +3896,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" s="6" t="s">
         <v>215</v>
       </c>
@@ -3661,7 +3907,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" s="6" t="s">
         <v>151</v>
       </c>
@@ -3672,7 +3918,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162" s="6" t="s">
         <v>151</v>
       </c>
@@ -3683,7 +3929,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" s="6" t="s">
         <v>151</v>
       </c>
@@ -3694,7 +3940,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" s="6" t="s">
         <v>151</v>
       </c>
@@ -3705,7 +3951,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" s="6" t="s">
         <v>151</v>
       </c>
@@ -3716,7 +3962,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" s="6" t="s">
         <v>151</v>
       </c>
@@ -3727,7 +3973,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" s="6" t="s">
         <v>151</v>
       </c>
@@ -3738,7 +3984,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
         <v>151</v>
       </c>
@@ -3749,7 +3995,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" s="6" t="s">
         <v>151</v>
       </c>
@@ -3760,7 +4006,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" s="6" t="s">
         <v>216</v>
       </c>
@@ -3771,7 +4017,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" s="6" t="s">
         <v>217</v>
       </c>
@@ -3782,7 +4028,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" s="6" t="s">
         <v>218</v>
       </c>
@@ -3793,7 +4039,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" s="6" t="s">
         <v>219</v>
       </c>
@@ -3804,7 +4050,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" s="6" t="s">
         <v>220</v>
       </c>
@@ -3815,7 +4061,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" s="6" t="s">
         <v>221</v>
       </c>
@@ -3826,7 +4072,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" s="6" t="s">
         <v>222</v>
       </c>
@@ -3837,7 +4083,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="6" t="s">
         <v>151</v>
       </c>
@@ -3848,7 +4094,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" s="6" t="s">
         <v>151</v>
       </c>
@@ -3859,7 +4105,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" s="6" t="s">
         <v>199</v>
       </c>
@@ -3870,7 +4116,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" s="6" t="s">
         <v>151</v>
       </c>
@@ -3881,7 +4127,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" s="6" t="s">
         <v>151</v>
       </c>
@@ -3892,7 +4138,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" s="6" t="s">
         <v>151</v>
       </c>
@@ -3903,7 +4149,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" s="6" t="s">
         <v>151</v>
       </c>
@@ -3914,7 +4160,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" s="6" t="s">
         <v>224</v>
       </c>
@@ -3925,7 +4171,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" s="6" t="s">
         <v>151</v>
       </c>
@@ -3936,7 +4182,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" s="6" t="s">
         <v>181</v>
       </c>
@@ -3947,7 +4193,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" s="6" t="s">
         <v>225</v>
       </c>
@@ -3958,7 +4204,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" s="6" t="s">
         <v>226</v>
       </c>
@@ -3969,7 +4215,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" s="6" t="s">
         <v>223</v>
       </c>
@@ -3980,7 +4226,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" s="6" t="s">
         <v>223</v>
       </c>
@@ -3991,7 +4237,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" s="6" t="s">
         <v>223</v>
       </c>
@@ -4002,7 +4248,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" s="6" t="s">
         <v>223</v>
       </c>
@@ -4013,7 +4259,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" s="6" t="s">
         <v>223</v>
       </c>
@@ -4024,7 +4270,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194" s="6" t="s">
         <v>223</v>
       </c>
@@ -4035,7 +4281,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" s="6" t="s">
         <v>223</v>
       </c>
@@ -4046,7 +4292,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A196" s="6" t="s">
         <v>223</v>
       </c>
@@ -4057,7 +4303,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A197" s="6" t="s">
         <v>223</v>
       </c>
@@ -4068,7 +4314,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A198" s="6" t="s">
         <v>223</v>
       </c>
@@ -4079,7 +4325,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A199" s="6" t="s">
         <v>223</v>
       </c>
@@ -4090,7 +4336,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A200" s="6" t="s">
         <v>223</v>
       </c>
@@ -4101,7 +4347,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A201" s="6" t="s">
         <v>223</v>
       </c>
@@ -4112,7 +4358,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A202" s="6" t="s">
         <v>223</v>
       </c>
@@ -4123,7 +4369,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A203" s="6" t="s">
         <v>223</v>
       </c>
@@ -4134,7 +4380,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204" s="6" t="s">
         <v>223</v>
       </c>
@@ -4145,7 +4391,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" s="6" t="s">
         <v>223</v>
       </c>
@@ -4156,7 +4402,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206" s="6" t="s">
         <v>223</v>
       </c>
@@ -4167,7 +4413,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" s="6" t="s">
         <v>223</v>
       </c>
@@ -4178,7 +4424,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208" s="6" t="s">
         <v>223</v>
       </c>
@@ -4189,7 +4435,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209" s="6" t="s">
         <v>227</v>
       </c>
@@ -4200,7 +4446,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A210" s="6" t="s">
         <v>227</v>
       </c>
@@ -4211,7 +4457,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211" s="6" t="s">
         <v>227</v>
       </c>
@@ -4222,7 +4468,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212" s="6" t="s">
         <v>223</v>
       </c>
@@ -4233,7 +4479,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213" s="6" t="s">
         <v>223</v>
       </c>
@@ -4244,7 +4490,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214" s="6" t="s">
         <v>223</v>
       </c>
@@ -4255,7 +4501,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" s="6" t="s">
         <v>223</v>
       </c>
@@ -4266,7 +4512,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" s="6" t="s">
         <v>223</v>
       </c>
@@ -4277,7 +4523,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A217" s="6" t="s">
         <v>223</v>
       </c>
@@ -4288,7 +4534,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" s="6" t="s">
         <v>223</v>
       </c>
@@ -4299,7 +4545,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" s="6" t="s">
         <v>223</v>
       </c>
@@ -4310,7 +4556,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A220" s="6" t="s">
         <v>223</v>
       </c>
@@ -4321,7 +4567,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A221" s="6" t="s">
         <v>223</v>
       </c>
@@ -4332,7 +4578,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222" s="6" t="s">
         <v>223</v>
       </c>
@@ -4343,7 +4589,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A223" s="6" t="s">
         <v>223</v>
       </c>
@@ -4354,7 +4600,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A224" s="6" t="s">
         <v>223</v>
       </c>
@@ -4365,7 +4611,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" s="6" t="s">
         <v>223</v>
       </c>
@@ -4376,7 +4622,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" s="6" t="s">
         <v>223</v>
       </c>
@@ -4387,7 +4633,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227" s="6" t="s">
         <v>223</v>
       </c>
@@ -4398,7 +4644,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" s="6" t="s">
         <v>223</v>
       </c>
@@ -4409,7 +4655,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229" s="6" t="s">
         <v>223</v>
       </c>
@@ -4420,7 +4666,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230" s="6" t="s">
         <v>223</v>
       </c>
@@ -4431,7 +4677,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A231" s="6" t="s">
         <v>223</v>
       </c>
@@ -4442,7 +4688,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A232" s="6" t="s">
         <v>223</v>
       </c>
@@ -4453,7 +4699,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A233" s="6" t="s">
         <v>223</v>
       </c>
@@ -4464,7 +4710,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A234" s="6" t="s">
         <v>223</v>
       </c>
@@ -4475,7 +4721,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A235" s="6" t="s">
         <v>223</v>
       </c>
@@ -4486,7 +4732,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A236" s="6" t="s">
         <v>223</v>
       </c>
@@ -4497,7 +4743,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A237" s="6" t="s">
         <v>223</v>
       </c>
@@ -4508,7 +4754,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A238" s="6" t="s">
         <v>223</v>
       </c>
@@ -4519,7 +4765,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A239" s="6" t="s">
         <v>223</v>
       </c>
@@ -4530,7 +4776,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A240" s="6" t="s">
         <v>223</v>
       </c>
@@ -4541,7 +4787,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A241" s="6" t="s">
         <v>223</v>
       </c>
@@ -4552,7 +4798,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A242" s="6" t="s">
         <v>223</v>
       </c>
@@ -4563,7 +4809,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A243" s="6" t="s">
         <v>223</v>
       </c>
@@ -4574,7 +4820,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A244" s="6" t="s">
         <v>223</v>
       </c>
@@ -4585,7 +4831,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A245" s="6" t="s">
         <v>223</v>
       </c>
@@ -4596,7 +4842,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A246" s="6" t="s">
         <v>223</v>
       </c>
@@ -4607,7 +4853,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A247" s="6" t="s">
         <v>223</v>
       </c>
@@ -4618,7 +4864,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A248" s="6" t="s">
         <v>223</v>
       </c>
@@ -4629,7 +4875,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A249" s="6" t="s">
         <v>223</v>
       </c>
@@ -4640,7 +4886,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A250" s="6" t="s">
         <v>223</v>
       </c>
@@ -4651,7 +4897,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A251" s="6" t="s">
         <v>223</v>
       </c>
@@ -4662,7 +4908,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A252" s="6" t="s">
         <v>223</v>
       </c>
@@ -4673,7 +4919,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A253" s="6" t="s">
         <v>223</v>
       </c>
@@ -4684,7 +4930,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A254" s="6" t="s">
         <v>227</v>
       </c>
@@ -4695,7 +4941,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A255" s="6" t="s">
         <v>223</v>
       </c>
@@ -4706,7 +4952,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A256" s="6" t="s">
         <v>223</v>
       </c>
@@ -4717,7 +4963,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A257" s="6" t="s">
         <v>223</v>
       </c>
@@ -4728,7 +4974,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A258" s="6" t="s">
         <v>223</v>
       </c>
@@ -4739,7 +4985,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A259" s="6" t="s">
         <v>223</v>
       </c>
@@ -4750,7 +4996,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A260" s="6" t="s">
         <v>223</v>
       </c>
@@ -4761,7 +5007,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A261" s="6" t="s">
         <v>223</v>
       </c>
@@ -4772,7 +5018,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A262" s="6" t="s">
         <v>223</v>
       </c>
@@ -4783,7 +5029,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A263" s="6" t="s">
         <v>223</v>
       </c>
@@ -4794,7 +5040,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A264" s="6" t="s">
         <v>223</v>
       </c>
@@ -4805,7 +5051,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A265" s="6" t="s">
         <v>223</v>
       </c>
@@ -4816,7 +5062,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A266" s="6" t="s">
         <v>223</v>
       </c>
@@ -4827,7 +5073,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A267" s="6" t="s">
         <v>223</v>
       </c>
@@ -4838,7 +5084,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A268" s="6" t="s">
         <v>223</v>
       </c>
@@ -4849,7 +5095,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A269" s="6" t="s">
         <v>223</v>
       </c>
@@ -4860,7 +5106,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A270" s="6" t="s">
         <v>223</v>
       </c>
@@ -4871,7 +5117,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A271" s="6" t="s">
         <v>223</v>
       </c>
@@ -4882,7 +5128,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A272" s="6" t="s">
         <v>223</v>
       </c>
@@ -4893,7 +5139,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A273" s="6" t="s">
         <v>223</v>
       </c>
@@ -4904,7 +5150,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A274" s="6" t="s">
         <v>223</v>
       </c>
@@ -4915,7 +5161,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A275" s="6" t="s">
         <v>223</v>
       </c>
@@ -4926,7 +5172,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A276" s="6" t="s">
         <v>223</v>
       </c>
@@ -4937,7 +5183,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A277" s="6" t="s">
         <v>223</v>
       </c>
@@ -4948,7 +5194,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A278" s="6" t="s">
         <v>223</v>
       </c>
@@ -4959,7 +5205,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A279" s="6" t="s">
         <v>223</v>
       </c>
@@ -4970,7 +5216,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A280" s="6" t="s">
         <v>223</v>
       </c>
@@ -4981,7 +5227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A281" s="6" t="s">
         <v>223</v>
       </c>
@@ -4992,7 +5238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A282" s="6" t="s">
         <v>223</v>
       </c>
@@ -5003,7 +5249,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A283" s="6" t="s">
         <v>223</v>
       </c>
@@ -5014,7 +5260,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A284" s="6" t="s">
         <v>223</v>
       </c>
@@ -5025,7 +5271,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A285" s="6" t="s">
         <v>223</v>
       </c>
@@ -5036,7 +5282,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A286" s="6" t="s">
         <v>227</v>
       </c>
@@ -5047,7 +5293,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A287" s="6" t="s">
         <v>226</v>
       </c>
@@ -5058,7 +5304,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A288" s="6" t="s">
         <v>231</v>
       </c>
@@ -5069,182 +5315,182 @@
         <v>230</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="C289" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="C291" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="C292" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="C293" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="C294" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="C295" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="C296" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="C297" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="C298" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="C299" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="C300" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="C301" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="C302" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="C303" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="C304" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="C305" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="C306" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="C307" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="C308" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="C309" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="C310" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="C311" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="C312" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="C313" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A314" s="6" t="s">
         <v>227</v>
       </c>
@@ -5255,7 +5501,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A315" s="6" t="s">
         <v>227</v>
       </c>
@@ -5266,7 +5512,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A316" s="6" t="s">
         <v>223</v>
       </c>
@@ -5277,7 +5523,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A317" s="6" t="s">
         <v>223</v>
       </c>
@@ -5288,7 +5534,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A318" s="6" t="s">
         <v>223</v>
       </c>
@@ -5299,7 +5545,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A319" s="6" t="s">
         <v>223</v>
       </c>
@@ -5310,7 +5556,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A320" s="6" t="s">
         <v>223</v>
       </c>
@@ -5321,7 +5567,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A321" s="6" t="s">
         <v>223</v>
       </c>
@@ -5332,7 +5578,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A322" s="6" t="s">
         <v>223</v>
       </c>
@@ -5343,7 +5589,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A323" s="6" t="s">
         <v>223</v>
       </c>
@@ -5354,7 +5600,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A324" s="6" t="s">
         <v>223</v>
       </c>
@@ -5365,7 +5611,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A325" s="6" t="s">
         <v>227</v>
       </c>
@@ -5376,7 +5622,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A326" s="6" t="s">
         <v>223</v>
       </c>
@@ -5387,7 +5633,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A327" s="6" t="s">
         <v>223</v>
       </c>
@@ -5398,7 +5644,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A328" s="6" t="s">
         <v>223</v>
       </c>
@@ -5409,7 +5655,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A329" s="6" t="s">
         <v>223</v>
       </c>
@@ -5420,7 +5666,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A330" s="6" t="s">
         <v>223</v>
       </c>
@@ -5431,7 +5677,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A331" s="6" t="s">
         <v>223</v>
       </c>
@@ -5442,7 +5688,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A332" s="6" t="s">
         <v>151</v>
       </c>
@@ -5453,7 +5699,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A333" s="6" t="s">
         <v>151</v>
       </c>
@@ -5464,7 +5710,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A334" s="6" t="s">
         <v>151</v>
       </c>
@@ -5475,7 +5721,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A335" s="6" t="s">
         <v>151</v>
       </c>
@@ -5486,7 +5732,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A336" s="6" t="s">
         <v>151</v>
       </c>
@@ -5497,7 +5743,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A337" s="6" t="s">
         <v>151</v>
       </c>
@@ -5508,7 +5754,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A338" s="6" t="s">
         <v>151</v>
       </c>
@@ -5519,7 +5765,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A339" s="6" t="s">
         <v>223</v>
       </c>
@@ -5530,56 +5776,56 @@
         <v>150</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="C340" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="C341" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="C342" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="C343" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="C344" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="C345" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="C346" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A347" s="6" t="s">
         <v>9</v>
       </c>
@@ -5590,7 +5836,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A348" s="6" t="s">
         <v>9</v>
       </c>
@@ -5601,7 +5847,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A349" s="6" t="s">
         <v>232</v>
       </c>
@@ -5612,7 +5858,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A350" s="6" t="s">
         <v>234</v>
       </c>
@@ -5623,7 +5869,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A351" s="6" t="s">
         <v>9</v>
       </c>
@@ -5634,7 +5880,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A352" s="6" t="s">
         <v>151</v>
       </c>
@@ -5645,7 +5891,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A353" s="6" t="s">
         <v>9</v>
       </c>
@@ -5656,7 +5902,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A354" s="6" t="s">
         <v>157</v>
       </c>
@@ -5667,14 +5913,14 @@
         <v>223</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="C355" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A356" s="6" t="s">
         <v>9</v>
       </c>
@@ -5685,158 +5931,1114 @@
         <v>151</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C357" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C358" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C359" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C360" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C361" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C362" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C363" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C364" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C365" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C366" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C367" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C368" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C369" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C370" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C371" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C372" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C373" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C374" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C375" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C376" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C377" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C378" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C379" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C380" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C381" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C382" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C383" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C384" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C385" s="5" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C178"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="J152" sqref="J152"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="5">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="5">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B9" s="5">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B10" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B11" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B12" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B13" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B14" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B16" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B27" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B28" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B29" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B30" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B31" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B32" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B42" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B43" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B45" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B46" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B47" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B48" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B49" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B50" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B51" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B52" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B53" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B54" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B55" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B56" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B57" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B58" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B59" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B60" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B61" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B62" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B63" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B64" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B65" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B66" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B67" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B68" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B69" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B70" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B71" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B72" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B73" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B74" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B75" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B76" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B77" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B78" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B79" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B80" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B81" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B82" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B83" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B84" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B85" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B86" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B87" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B88" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B89" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B90" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B91" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B92" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B93" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B94" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B95" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B96" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B97" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B98" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B99" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B100" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B101" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B102" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B103" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B104" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B105" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B106" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B107" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B108" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B109" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B110" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B111" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B112" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B113" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B114" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B115" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B116" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B117" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B118" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B119" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B120" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B121" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B122" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B123" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B124" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B125" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B126" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B127" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B128" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B129" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B130" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B131" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B132" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B133" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B134" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B135" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B136" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B137" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B138" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B139" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B140" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B141" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B142" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B143" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B144" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B145" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B146" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B147" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B148" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B149" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B150" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B151" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B152" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B153" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B154" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B155" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B156" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B157" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B158" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B159" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B160" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B161" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B162" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B163" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B164" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B165" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B166" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B167" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B168" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B169" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B170" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B171" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B172" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B173" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B174" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B175" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B176" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B177" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B178" s="5">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/frontSimulator/information.xlsx
+++ b/frontSimulator/information.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="32380" yWindow="4560" windowWidth="25600" windowHeight="14180" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="32380" yWindow="4560" windowWidth="25600" windowHeight="14180" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
   </sheets>
   <calcPr calcId="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2597" uniqueCount="325">
   <si>
     <t>wtid</t>
   </si>
@@ -543,10 +546,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>FALSE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -572,10 +571,6 @@
   </si>
   <si>
     <t>98</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4</t>
@@ -1008,6 +1003,30 @@
   </si>
   <si>
     <t>50</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>power_flag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1467</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALSE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1396,10 +1415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1408,12 +1427,13 @@
     <col min="2" max="2" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="4"/>
+    <col min="7" max="7" width="11.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1432,19 +1452,22 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>167</v>
@@ -1456,21 +1479,24 @@
         <v>168</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>73</v>
@@ -1482,47 +1508,53 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>73</v>
@@ -1534,99 +1566,111 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>82</v>
@@ -1638,21 +1682,24 @@
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>82</v>
@@ -1664,21 +1711,24 @@
         <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>82</v>
@@ -1690,21 +1740,24 @@
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>82</v>
@@ -1716,99 +1769,111 @@
         <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
@@ -1820,21 +1885,24 @@
         <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
@@ -1846,47 +1914,53 @@
         <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
@@ -1898,99 +1972,111 @@
         <v>8</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>73</v>
@@ -2002,73 +2088,82 @@
         <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>179</v>
+        <v>320</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>73</v>
@@ -2080,47 +2175,53 @@
         <v>8</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>73</v>
@@ -2132,47 +2233,53 @@
         <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>21</v>
@@ -2184,21 +2291,24 @@
         <v>8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>21</v>
@@ -2210,21 +2320,24 @@
         <v>8</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>179</v>
+        <v>247</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>21</v>
@@ -2236,21 +2349,24 @@
         <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>21</v>
@@ -2262,99 +2378,111 @@
         <v>8</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="H35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="H36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>20</v>
@@ -2366,21 +2494,24 @@
         <v>8</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="H37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>20</v>
@@ -2392,47 +2523,53 @@
         <v>8</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="H38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="H39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>20</v>
@@ -2444,47 +2581,53 @@
         <v>8</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="H40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="H41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>20</v>
@@ -2496,38 +2639,44 @@
         <v>8</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="H42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="H43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="4" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2542,8 +2691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2701,18 +2850,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK385"/>
+  <dimension ref="A1:D385"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="C358" sqref="C358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="8.83203125" style="7"/>
     <col min="4" max="4" width="32.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="1025" width="8.83203125" style="7"/>
-    <col min="1026" max="16384" width="8.83203125" style="8"/>
+    <col min="5" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -2740,7 +2888,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -2754,7 +2902,7 @@
         <v>52</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -2782,7 +2930,7 @@
         <v>57</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -2796,7 +2944,7 @@
         <v>59</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -2824,7 +2972,7 @@
         <v>62</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -2838,7 +2986,7 @@
         <v>62</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -2866,7 +3014,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -2880,7 +3028,7 @@
         <v>68</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -2894,7 +3042,7 @@
         <v>68</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -2904,7 +3052,7 @@
         <v>68</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -2918,7 +3066,7 @@
         <v>68</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -2932,7 +3080,7 @@
         <v>68</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -2946,7 +3094,7 @@
         <v>68</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -2960,7 +3108,7 @@
         <v>68</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -2974,7 +3122,7 @@
         <v>68</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -2988,7 +3136,7 @@
         <v>68</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3002,7 +3150,7 @@
         <v>68</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3058,7 +3206,7 @@
         <v>68</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3086,7 +3234,7 @@
         <v>68</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3100,7 +3248,7 @@
         <v>68</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3114,7 +3262,7 @@
         <v>68</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3128,7 +3276,7 @@
         <v>68</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3142,7 +3290,7 @@
         <v>68</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3156,7 +3304,7 @@
         <v>68</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3170,7 +3318,7 @@
         <v>68</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3184,7 +3332,7 @@
         <v>68</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3198,7 +3346,7 @@
         <v>79</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3212,7 +3360,7 @@
         <v>79</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3226,7 +3374,7 @@
         <v>79</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3240,7 +3388,7 @@
         <v>79</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3254,7 +3402,7 @@
         <v>79</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3268,7 +3416,7 @@
         <v>79</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3282,7 +3430,7 @@
         <v>79</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3296,7 +3444,7 @@
         <v>79</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3310,7 +3458,7 @@
         <v>79</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3324,7 +3472,7 @@
         <v>79</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3338,7 +3486,7 @@
         <v>79</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3352,7 +3500,7 @@
         <v>79</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3366,7 +3514,7 @@
         <v>79</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3380,7 +3528,7 @@
         <v>79</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3394,7 +3542,7 @@
         <v>79</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3408,7 +3556,7 @@
         <v>79</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3418,7 +3566,7 @@
         <v>79</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3428,7 +3576,7 @@
         <v>79</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3438,7 +3586,7 @@
         <v>79</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3448,7 +3596,7 @@
         <v>79</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3458,7 +3606,7 @@
         <v>79</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3468,7 +3616,7 @@
         <v>79</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3482,7 +3630,7 @@
         <v>79</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3496,7 +3644,7 @@
         <v>79</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3510,7 +3658,7 @@
         <v>79</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3524,7 +3672,7 @@
         <v>79</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3538,7 +3686,7 @@
         <v>79</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3552,7 +3700,7 @@
         <v>79</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3566,7 +3714,7 @@
         <v>79</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3580,7 +3728,7 @@
         <v>79</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3594,7 +3742,7 @@
         <v>79</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3608,7 +3756,7 @@
         <v>79</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3622,7 +3770,7 @@
         <v>79</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3636,7 +3784,7 @@
         <v>79</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3650,7 +3798,7 @@
         <v>79</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3664,7 +3812,7 @@
         <v>79</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3678,7 +3826,7 @@
         <v>79</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3692,7 +3840,7 @@
         <v>79</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3706,7 +3854,7 @@
         <v>79</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3720,7 +3868,7 @@
         <v>80</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3734,7 +3882,7 @@
         <v>80</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3748,7 +3896,7 @@
         <v>80</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3762,7 +3910,7 @@
         <v>80</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3776,7 +3924,7 @@
         <v>80</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3790,7 +3938,7 @@
         <v>89</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3804,7 +3952,7 @@
         <v>89</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3818,7 +3966,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3832,7 +3980,7 @@
         <v>80</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3846,7 +3994,7 @@
         <v>80</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3860,7 +4008,7 @@
         <v>80</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3874,7 +4022,7 @@
         <v>80</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3888,7 +4036,7 @@
         <v>80</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3902,7 +4050,7 @@
         <v>80</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3916,7 +4064,7 @@
         <v>80</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3930,7 +4078,7 @@
         <v>80</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3944,7 +4092,7 @@
         <v>80</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3958,7 +4106,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="92" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3972,7 +4120,7 @@
         <v>80</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3986,7 +4134,7 @@
         <v>80</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4000,7 +4148,7 @@
         <v>80</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4014,7 +4162,7 @@
         <v>80</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4028,7 +4176,7 @@
         <v>80</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4042,7 +4190,7 @@
         <v>80</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4056,7 +4204,7 @@
         <v>80</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4070,7 +4218,7 @@
         <v>80</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4084,7 +4232,7 @@
         <v>80</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4098,7 +4246,7 @@
         <v>80</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4112,7 +4260,7 @@
         <v>80</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4126,7 +4274,7 @@
         <v>80</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4140,7 +4288,7 @@
         <v>80</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4154,7 +4302,7 @@
         <v>80</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4168,7 +4316,7 @@
         <v>80</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4182,7 +4330,7 @@
         <v>80</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4196,7 +4344,7 @@
         <v>80</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4210,7 +4358,7 @@
         <v>80</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="110" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4224,7 +4372,7 @@
         <v>80</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4238,7 +4386,7 @@
         <v>80</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="112" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4252,7 +4400,7 @@
         <v>81</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="113" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4266,7 +4414,7 @@
         <v>81</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="114" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4280,7 +4428,7 @@
         <v>81</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="115" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4294,7 +4442,7 @@
         <v>8</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="116" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4308,7 +4456,7 @@
         <v>80</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="117" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4322,7 +4470,7 @@
         <v>80</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="118" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4336,7 +4484,7 @@
         <v>80</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="119" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4350,7 +4498,7 @@
         <v>80</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="120" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4364,7 +4512,7 @@
         <v>80</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="121" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4378,7 +4526,7 @@
         <v>80</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="122" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4392,7 +4540,7 @@
         <v>80</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="123" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4406,7 +4554,7 @@
         <v>80</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="124" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4420,7 +4568,7 @@
         <v>8</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="125" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4434,7 +4582,7 @@
         <v>80</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="126" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4448,7 +4596,7 @@
         <v>80</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="127" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4462,7 +4610,7 @@
         <v>80</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="128" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4476,7 +4624,7 @@
         <v>80</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="129" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4490,7 +4638,7 @@
         <v>80</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="130" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4504,7 +4652,7 @@
         <v>81</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="131" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4518,7 +4666,7 @@
         <v>80</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="132" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4532,7 +4680,7 @@
         <v>80</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="133" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4546,7 +4694,7 @@
         <v>80</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="134" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4574,7 +4722,7 @@
         <v>79</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="136" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4602,7 +4750,7 @@
         <v>79</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="138" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4616,7 +4764,7 @@
         <v>20</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="139" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4630,7 +4778,7 @@
         <v>70</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="140" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4686,7 +4834,7 @@
         <v>28</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="144" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4700,7 +4848,7 @@
         <v>131</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="145" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4714,7 +4862,7 @@
         <v>81</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="146" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4728,7 +4876,7 @@
         <v>81</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="147" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4742,7 +4890,7 @@
         <v>81</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="148" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4770,7 +4918,7 @@
         <v>81</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="150" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4854,7 +5002,7 @@
         <v>81</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="156" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4882,7 +5030,7 @@
         <v>81</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="158" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -7139,62 +7287,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>234</v>
-      </c>
       <c r="F3" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -7208,21 +7356,21 @@
         <v>8</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>86</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>73</v>
@@ -7234,7 +7382,7 @@
         <v>86</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -7251,30 +7399,30 @@
         <v>74</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>73</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -7282,24 +7430,24 @@
         <v>83</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>73</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>24</v>
@@ -7308,21 +7456,21 @@
         <v>85</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>85</v>
@@ -7334,18 +7482,18 @@
         <v>83</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>83</v>
@@ -7354,7 +7502,7 @@
         <v>83</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -7362,27 +7510,27 @@
         <v>81</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>14</v>
@@ -7391,10 +7539,10 @@
         <v>74</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -7408,21 +7556,21 @@
         <v>14</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>16</v>
@@ -7431,10 +7579,10 @@
         <v>82</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -7448,21 +7596,21 @@
         <v>16</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>81</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>18</v>
@@ -7474,32 +7622,32 @@
         <v>81</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>24</v>
@@ -7508,7 +7656,7 @@
         <v>20</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>85</v>
@@ -7519,16 +7667,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>85</v>
@@ -7539,7 +7687,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>24</v>
@@ -7551,10 +7699,10 @@
         <v>8</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -7562,7 +7710,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>22</v>
@@ -7574,27 +7722,27 @@
         <v>82</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>82</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -7608,33 +7756,33 @@
         <v>24</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -7648,33 +7796,33 @@
         <v>26</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -7682,7 +7830,7 @@
         <v>17</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>28</v>
@@ -7691,15 +7839,15 @@
         <v>14</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>24</v>
@@ -7708,13 +7856,13 @@
         <v>30</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -7722,24 +7870,24 @@
         <v>18</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>24</v>
@@ -7754,7 +7902,7 @@
         <v>14</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -7762,39 +7910,39 @@
         <v>19</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -7814,27 +7962,27 @@
         <v>15</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -7848,24 +7996,24 @@
         <v>37</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>37</v>
@@ -7874,7 +8022,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -7882,10 +8030,10 @@
         <v>22</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>35</v>
@@ -7894,12 +8042,12 @@
         <v>16</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>24</v>
@@ -7911,10 +8059,10 @@
         <v>81</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -7922,7 +8070,7 @@
         <v>23</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>131</v>
@@ -7934,18 +8082,18 @@
         <v>17</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>81</v>
@@ -7954,7 +8102,7 @@
         <v>17</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -7962,27 +8110,27 @@
         <v>24</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>78</v>
@@ -7994,7 +8142,7 @@
         <v>18</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -8014,27 +8162,27 @@
         <v>18</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>71</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
@@ -8048,24 +8196,24 @@
         <v>71</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>16</v>
@@ -8074,7 +8222,7 @@
         <v>19</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
@@ -8082,24 +8230,24 @@
         <v>27</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>24</v>
@@ -8108,13 +8256,13 @@
         <v>76</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
@@ -8122,24 +8270,24 @@
         <v>28</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>76</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>24</v>
@@ -8148,13 +8296,13 @@
         <v>8</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
@@ -8162,39 +8310,39 @@
         <v>29</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>85</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
@@ -8205,36 +8353,36 @@
         <v>24</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>22</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
@@ -8245,36 +8393,36 @@
         <v>24</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>22</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
@@ -8282,13 +8430,13 @@
         <v>32</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>23</v>
@@ -8299,13 +8447,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>86</v>
@@ -8322,24 +8470,24 @@
         <v>34</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>86</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>24</v>
@@ -8351,7 +8499,7 @@
         <v>24</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
@@ -8359,33 +8507,33 @@
         <v>35</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>24</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>131</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
@@ -8396,21 +8544,21 @@
         <v>24</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>71</v>
@@ -8419,7 +8567,7 @@
         <v>25</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
@@ -8430,41 +8578,41 @@
         <v>24</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B67" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>26</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B68" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>26</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
@@ -8472,27 +8620,27 @@
         <v>24</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B70" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
@@ -8506,35 +8654,35 @@
         <v>27</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B72" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B73" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>28</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
@@ -8542,27 +8690,27 @@
         <v>24</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>28</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B75" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
@@ -8570,41 +8718,41 @@
         <v>24</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>29</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B77" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>29</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B78" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E78" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="C78" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>234</v>
-      </c>
       <c r="F78" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
@@ -8612,27 +8760,27 @@
         <v>24</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>30</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B80" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E80" s="13" t="s">
         <v>30</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.15">
@@ -8640,41 +8788,41 @@
         <v>24</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B82" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E82" s="13" t="s">
         <v>31</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B83" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E83" s="13" t="s">
         <v>31</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.15">
@@ -8682,27 +8830,27 @@
         <v>24</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B85" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E85" s="13" t="s">
         <v>32</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.15">
@@ -8710,41 +8858,41 @@
         <v>24</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E86" s="13" t="s">
         <v>32</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B87" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B88" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>34</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.15">
@@ -8752,27 +8900,27 @@
         <v>24</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E89" s="13" t="s">
         <v>34</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B90" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.15">
@@ -8780,41 +8928,41 @@
         <v>24</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E91" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B92" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E92" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B93" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E93" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="C93" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>234</v>
-      </c>
       <c r="F93" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.15">
@@ -8822,27 +8970,27 @@
         <v>24</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E94" s="13" t="s">
         <v>36</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B95" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E95" s="13" t="s">
         <v>36</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
@@ -8850,41 +8998,41 @@
         <v>24</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B97" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E97" s="13" t="s">
         <v>37</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B98" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E98" s="13" t="s">
         <v>37</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.15">
@@ -8892,27 +9040,27 @@
         <v>24</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B100" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E100" s="13" t="s">
         <v>39</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
@@ -8923,29 +9071,29 @@
         <v>39</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B102" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B103" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
@@ -8953,21 +9101,21 @@
         <v>24</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B105" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
@@ -8975,32 +9123,32 @@
         <v>24</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B107" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B108" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E108" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="E108" s="12" t="s">
-        <v>234</v>
-      </c>
       <c r="F108" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.15">
@@ -9011,18 +9159,18 @@
         <v>131</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B110" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E110" s="13" t="s">
         <v>131</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.15">
@@ -9030,32 +9178,32 @@
         <v>24</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B112" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E112" s="13" t="s">
         <v>75</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B113" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E113" s="13" t="s">
         <v>75</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.15">
@@ -9063,18 +9211,18 @@
         <v>24</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B115" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F115" s="10" t="s">
         <v>12</v>
@@ -9085,7 +9233,7 @@
         <v>24</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F116" s="10" t="s">
         <v>12</v>
@@ -9093,24 +9241,24 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B117" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B118" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.15">
@@ -9118,21 +9266,21 @@
         <v>24</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B120" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.15">
@@ -9143,29 +9291,29 @@
         <v>78</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B122" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E122" s="13" t="s">
         <v>78</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B123" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E123" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="E123" s="12" t="s">
-        <v>234</v>
-      </c>
       <c r="F123" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.15">
@@ -9173,21 +9321,21 @@
         <v>24</v>
       </c>
       <c r="E124" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B125" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E125" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.15">
@@ -9195,32 +9343,32 @@
         <v>24</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B127" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E127" s="13" t="s">
         <v>71</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B128" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E128" s="13" t="s">
         <v>71</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.15">
@@ -9228,21 +9376,21 @@
         <v>24</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B130" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E130" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.15">
@@ -9250,32 +9398,32 @@
         <v>24</v>
       </c>
       <c r="E131" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B132" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B133" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E133" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.15">
@@ -9283,21 +9431,21 @@
         <v>24</v>
       </c>
       <c r="E134" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B135" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.15">
@@ -9305,32 +9453,32 @@
         <v>24</v>
       </c>
       <c r="E136" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B137" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E137" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B138" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E138" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="E138" s="12" t="s">
-        <v>234</v>
-      </c>
       <c r="F138" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.15">
@@ -9341,18 +9489,18 @@
         <v>76</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B140" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E140" s="13" t="s">
         <v>76</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.15">
@@ -9360,32 +9508,32 @@
         <v>24</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B142" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E142" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B143" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E143" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.15">
@@ -9393,21 +9541,21 @@
         <v>24</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B145" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E145" s="13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.15">
@@ -9415,29 +9563,29 @@
         <v>24</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B147" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B148" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E148" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F148" s="10" t="s">
         <v>9</v>
@@ -9448,7 +9596,7 @@
         <v>24</v>
       </c>
       <c r="E149" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F149" s="10" t="s">
         <v>9</v>
@@ -9456,10 +9604,10 @@
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B150" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.15">
@@ -9467,20 +9615,20 @@
         <v>24</v>
       </c>
       <c r="E151" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B152" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E152" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B153" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.15">
@@ -9490,7 +9638,7 @@
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B155" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.15">
@@ -9500,12 +9648,12 @@
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B157" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B158" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.15">
@@ -9515,7 +9663,7 @@
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B160" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.15">
@@ -9525,12 +9673,12 @@
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B162" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B163" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.15">
@@ -9540,7 +9688,7 @@
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B165" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.15">
@@ -9550,12 +9698,12 @@
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B167" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B168" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.15">
@@ -9565,7 +9713,7 @@
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B170" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.15">
@@ -9575,12 +9723,12 @@
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B172" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B173" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.15">
@@ -9590,7 +9738,7 @@
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B175" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.15">
@@ -9600,12 +9748,12 @@
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B177" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B178" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.15">
@@ -9615,7 +9763,7 @@
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B180" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.15">
@@ -9625,12 +9773,12 @@
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B182" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B183" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.15">
@@ -9640,7 +9788,7 @@
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B185" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.15">
@@ -9650,12 +9798,12 @@
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B187" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B188" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.15">
@@ -9665,7 +9813,7 @@
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B190" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.15">
@@ -9675,12 +9823,12 @@
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B192" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B193" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.15">
@@ -9690,7 +9838,7 @@
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B195" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.15">
@@ -9700,12 +9848,12 @@
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B197" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B198" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.15">
@@ -9715,7 +9863,7 @@
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B200" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.15">
@@ -9725,12 +9873,12 @@
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B202" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B203" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.15">
@@ -9740,7 +9888,7 @@
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B205" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.15">
@@ -9750,12 +9898,12 @@
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B207" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B208" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.15">
@@ -9765,7 +9913,7 @@
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B210" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.15">
@@ -9775,12 +9923,12 @@
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B212" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B213" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.15">
@@ -9790,7 +9938,7 @@
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B215" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.15">
@@ -9800,12 +9948,12 @@
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B217" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B218" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.15">
@@ -9815,7 +9963,7 @@
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B220" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.15">
@@ -9825,12 +9973,12 @@
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B222" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B223" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.15">
@@ -9840,7 +9988,7 @@
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B225" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.15">
@@ -9850,12 +9998,12 @@
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B227" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B228" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.15">
@@ -9865,7 +10013,7 @@
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B230" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.15">
@@ -9875,12 +10023,12 @@
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B232" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B233" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.15">
@@ -9890,7 +10038,7 @@
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B235" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.15">
@@ -9900,12 +10048,12 @@
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B237" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B238" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.15">
@@ -9915,7 +10063,7 @@
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B240" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.15">
@@ -9925,12 +10073,12 @@
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B242" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B243" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.15">
@@ -9940,7 +10088,7 @@
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B245" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.15">
@@ -9950,12 +10098,12 @@
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B247" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B248" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.15">
@@ -9965,7 +10113,7 @@
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B250" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.15">
@@ -9975,12 +10123,12 @@
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B252" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B253" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.15">
@@ -9990,7 +10138,7 @@
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B255" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.15">
@@ -10000,12 +10148,12 @@
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B257" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B258" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.15">
@@ -10015,7 +10163,7 @@
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B260" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.15">
@@ -10025,12 +10173,12 @@
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B262" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B263" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.15">
@@ -10040,7 +10188,7 @@
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B265" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.15">
@@ -10050,12 +10198,12 @@
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B267" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B268" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.15">
@@ -10065,7 +10213,7 @@
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B270" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.15">
@@ -10075,12 +10223,12 @@
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B272" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B273" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.15">
@@ -10090,7 +10238,7 @@
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B275" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.15">
@@ -10100,12 +10248,12 @@
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B277" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B278" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.15">
@@ -10115,7 +10263,7 @@
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B280" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.15">
@@ -10125,12 +10273,12 @@
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B282" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B283" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.15">
@@ -10140,7 +10288,7 @@
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B285" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.15">
@@ -10150,12 +10298,12 @@
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B287" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B288" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.15">
@@ -10165,7 +10313,7 @@
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B290" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.15">
@@ -10175,12 +10323,12 @@
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B292" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B293" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.15">
@@ -10190,7 +10338,7 @@
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B295" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.15">
@@ -10200,12 +10348,12 @@
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B297" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B298" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.15">
@@ -10215,7 +10363,7 @@
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B300" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.15">
@@ -10225,12 +10373,12 @@
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B302" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B303" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.15">
@@ -10240,7 +10388,7 @@
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B305" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.15">
@@ -10250,12 +10398,12 @@
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B307" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B308" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.15">
@@ -10265,7 +10413,7 @@
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B310" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.15">
@@ -10275,12 +10423,12 @@
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B312" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B313" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.15">
@@ -10290,7 +10438,7 @@
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B315" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.15">
@@ -10300,12 +10448,12 @@
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B317" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B318" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.15">
@@ -10315,7 +10463,7 @@
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B320" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.15">
@@ -10325,12 +10473,12 @@
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B322" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B323" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.15">
@@ -10340,7 +10488,7 @@
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B325" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.15">
@@ -10350,12 +10498,12 @@
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B327" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B328" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.15">
@@ -10365,7 +10513,7 @@
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B330" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="331" spans="2:2" x14ac:dyDescent="0.15">
@@ -10375,12 +10523,12 @@
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B332" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B333" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.15">
@@ -10390,7 +10538,7 @@
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B335" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="336" spans="2:2" x14ac:dyDescent="0.15">
@@ -10400,12 +10548,12 @@
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B337" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B338" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.15">
@@ -10415,7 +10563,7 @@
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B340" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.15">
@@ -10425,12 +10573,12 @@
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B342" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B343" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.15">
@@ -10440,7 +10588,7 @@
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B345" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="346" spans="2:2" x14ac:dyDescent="0.15">
@@ -10450,12 +10598,12 @@
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B347" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B348" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.15">
@@ -10465,7 +10613,7 @@
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B350" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="351" spans="2:2" x14ac:dyDescent="0.15">
@@ -10475,12 +10623,12 @@
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B352" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B353" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="354" spans="2:2" x14ac:dyDescent="0.15">
@@ -10490,7 +10638,7 @@
     </row>
     <row r="355" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B355" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="356" spans="2:2" x14ac:dyDescent="0.15">
@@ -10500,12 +10648,12 @@
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B357" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="358" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B358" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.15">
@@ -10515,7 +10663,7 @@
     </row>
     <row r="360" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B360" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="361" spans="2:2" x14ac:dyDescent="0.15">
@@ -10525,12 +10673,12 @@
     </row>
     <row r="362" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B362" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="363" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B363" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="364" spans="2:2" x14ac:dyDescent="0.15">
@@ -10540,7 +10688,7 @@
     </row>
     <row r="365" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B365" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="366" spans="2:2" x14ac:dyDescent="0.15">
@@ -10550,12 +10698,12 @@
     </row>
     <row r="367" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B367" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="368" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B368" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="369" spans="2:2" x14ac:dyDescent="0.15">
@@ -10565,7 +10713,7 @@
     </row>
     <row r="370" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B370" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="371" spans="2:2" x14ac:dyDescent="0.15">
@@ -10575,12 +10723,12 @@
     </row>
     <row r="372" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B372" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="373" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B373" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="374" spans="2:2" x14ac:dyDescent="0.15">
@@ -10590,7 +10738,7 @@
     </row>
     <row r="375" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B375" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="376" spans="2:2" x14ac:dyDescent="0.15">
@@ -10600,12 +10748,12 @@
     </row>
     <row r="377" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B377" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="378" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B378" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="379" spans="2:2" x14ac:dyDescent="0.15">
@@ -10615,7 +10763,7 @@
     </row>
     <row r="380" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B380" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="381" spans="2:2" x14ac:dyDescent="0.15">
@@ -10625,12 +10773,12 @@
     </row>
     <row r="382" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B382" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="383" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B383" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="384" spans="2:2" x14ac:dyDescent="0.15">
@@ -10640,7 +10788,7 @@
     </row>
     <row r="385" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B385" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="386" spans="2:2" x14ac:dyDescent="0.15">
@@ -10650,12 +10798,12 @@
     </row>
     <row r="387" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B387" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="388" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B388" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="389" spans="2:2" x14ac:dyDescent="0.15">
@@ -10665,7 +10813,7 @@
     </row>
     <row r="390" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B390" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="391" spans="2:2" x14ac:dyDescent="0.15">
@@ -10675,12 +10823,12 @@
     </row>
     <row r="392" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B392" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="393" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B393" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="394" spans="2:2" x14ac:dyDescent="0.15">
@@ -10690,7 +10838,7 @@
     </row>
     <row r="395" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B395" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="396" spans="2:2" x14ac:dyDescent="0.15">
@@ -10700,12 +10848,12 @@
     </row>
     <row r="397" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B397" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="398" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B398" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="399" spans="2:2" x14ac:dyDescent="0.15">
@@ -10715,7 +10863,7 @@
     </row>
     <row r="400" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B400" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="401" spans="2:2" x14ac:dyDescent="0.15">
@@ -10725,12 +10873,12 @@
     </row>
     <row r="402" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B402" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="403" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B403" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="404" spans="2:2" x14ac:dyDescent="0.15">
@@ -10740,7 +10888,7 @@
     </row>
     <row r="405" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B405" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="406" spans="2:2" x14ac:dyDescent="0.15">
@@ -10750,12 +10898,12 @@
     </row>
     <row r="407" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B407" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="408" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B408" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="409" spans="2:2" x14ac:dyDescent="0.15">
@@ -10765,7 +10913,7 @@
     </row>
     <row r="410" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B410" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="411" spans="2:2" x14ac:dyDescent="0.15">
@@ -10775,12 +10923,12 @@
     </row>
     <row r="412" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B412" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="413" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B413" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="414" spans="2:2" x14ac:dyDescent="0.15">
@@ -10790,7 +10938,7 @@
     </row>
     <row r="415" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B415" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="416" spans="2:2" x14ac:dyDescent="0.15">
@@ -10800,12 +10948,12 @@
     </row>
     <row r="417" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B417" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="418" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B418" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="419" spans="2:2" x14ac:dyDescent="0.15">
@@ -10815,7 +10963,7 @@
     </row>
     <row r="420" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B420" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="421" spans="2:2" x14ac:dyDescent="0.15">
@@ -10825,12 +10973,12 @@
     </row>
     <row r="422" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B422" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="423" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B423" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="424" spans="2:2" x14ac:dyDescent="0.15">
@@ -10840,7 +10988,7 @@
     </row>
     <row r="425" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B425" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="426" spans="2:2" x14ac:dyDescent="0.15">
@@ -10850,12 +10998,12 @@
     </row>
     <row r="427" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B427" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="428" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B428" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="429" spans="2:2" x14ac:dyDescent="0.15">
@@ -10865,7 +11013,7 @@
     </row>
     <row r="430" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B430" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="431" spans="2:2" x14ac:dyDescent="0.15">
@@ -10875,12 +11023,12 @@
     </row>
     <row r="432" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B432" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="433" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B433" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="434" spans="2:2" x14ac:dyDescent="0.15">
@@ -10890,7 +11038,7 @@
     </row>
     <row r="435" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B435" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="436" spans="2:2" x14ac:dyDescent="0.15">
@@ -10900,12 +11048,12 @@
     </row>
     <row r="437" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B437" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="438" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B438" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="439" spans="2:2" x14ac:dyDescent="0.15">
@@ -10915,7 +11063,7 @@
     </row>
     <row r="440" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B440" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="441" spans="2:2" x14ac:dyDescent="0.15">
@@ -10925,12 +11073,12 @@
     </row>
     <row r="442" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B442" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="443" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B443" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="444" spans="2:2" x14ac:dyDescent="0.15">
@@ -10940,7 +11088,7 @@
     </row>
     <row r="445" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B445" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="446" spans="2:2" x14ac:dyDescent="0.15">
@@ -10950,12 +11098,12 @@
     </row>
     <row r="447" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B447" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="448" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B448" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="449" spans="2:2" x14ac:dyDescent="0.15">
@@ -10965,7 +11113,7 @@
     </row>
     <row r="450" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B450" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="451" spans="2:2" x14ac:dyDescent="0.15">
@@ -10975,12 +11123,12 @@
     </row>
     <row r="452" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B452" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="453" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B453" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="454" spans="2:2" x14ac:dyDescent="0.15">
@@ -10990,7 +11138,7 @@
     </row>
     <row r="455" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B455" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="456" spans="2:2" x14ac:dyDescent="0.15">
@@ -11000,12 +11148,12 @@
     </row>
     <row r="457" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B457" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="458" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B458" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="459" spans="2:2" x14ac:dyDescent="0.15">
@@ -11015,7 +11163,7 @@
     </row>
     <row r="460" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B460" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="461" spans="2:2" x14ac:dyDescent="0.15">
@@ -11025,12 +11173,12 @@
     </row>
     <row r="462" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B462" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="463" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B463" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="464" spans="2:2" x14ac:dyDescent="0.15">
@@ -11040,7 +11188,7 @@
     </row>
     <row r="465" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B465" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="466" spans="2:2" x14ac:dyDescent="0.15">
@@ -11050,12 +11198,12 @@
     </row>
     <row r="467" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B467" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="468" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B468" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="469" spans="2:2" x14ac:dyDescent="0.15">
@@ -11065,7 +11213,7 @@
     </row>
     <row r="470" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B470" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="471" spans="2:2" x14ac:dyDescent="0.15">
@@ -11075,12 +11223,12 @@
     </row>
     <row r="472" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B472" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="473" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B473" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="474" spans="2:2" x14ac:dyDescent="0.15">
@@ -11090,7 +11238,7 @@
     </row>
     <row r="475" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B475" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="476" spans="2:2" x14ac:dyDescent="0.15">
@@ -11100,12 +11248,12 @@
     </row>
     <row r="477" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B477" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="478" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B478" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="479" spans="2:2" x14ac:dyDescent="0.15">
@@ -11115,7 +11263,7 @@
     </row>
     <row r="480" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B480" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="481" spans="2:2" x14ac:dyDescent="0.15">
@@ -11125,12 +11273,12 @@
     </row>
     <row r="482" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B482" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="483" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B483" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="484" spans="2:2" x14ac:dyDescent="0.15">
@@ -11140,7 +11288,7 @@
     </row>
     <row r="485" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B485" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="486" spans="2:2" x14ac:dyDescent="0.15">
@@ -11150,12 +11298,12 @@
     </row>
     <row r="487" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B487" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="488" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B488" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="489" spans="2:2" x14ac:dyDescent="0.15">
@@ -11165,7 +11313,7 @@
     </row>
     <row r="490" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B490" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="491" spans="2:2" x14ac:dyDescent="0.15">
@@ -11175,12 +11323,12 @@
     </row>
     <row r="492" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B492" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="493" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B493" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="494" spans="2:2" x14ac:dyDescent="0.15">
@@ -11190,7 +11338,7 @@
     </row>
     <row r="495" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B495" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="496" spans="2:2" x14ac:dyDescent="0.15">
@@ -11200,12 +11348,12 @@
     </row>
     <row r="497" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B497" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="498" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B498" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="499" spans="2:2" x14ac:dyDescent="0.15">
@@ -11215,7 +11363,7 @@
     </row>
     <row r="500" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B500" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="501" spans="2:2" x14ac:dyDescent="0.15">
@@ -11225,7 +11373,7 @@
     </row>
     <row r="502" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B502" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
